--- a/doc/ue_gameplay.xlsx
+++ b/doc/ue_gameplay.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\ue\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E54B4B5-B7B0-4C18-BA96-F5FAAF30B12F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="gamemode" sheetId="2" r:id="rId2"/>
     <sheet name="gamestate" sheetId="3" r:id="rId3"/>
     <sheet name="playerstate" sheetId="4" r:id="rId4"/>
+    <sheet name="AWorldSettings" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -271,7 +271,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -644,7 +644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -680,11 +680,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -893,10 +893,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
@@ -1018,7 +1018,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1069,4 +1069,20 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/ue_gameplay.xlsx
+++ b/doc/ue_gameplay.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D26AFCF-37A3-442A-9DB1-B09E33C3777E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="75">
   <si>
     <t>https://docs.unrealengine.com/4.27/zh-CN/InteractiveExperiences/HowTo/CharacterMovement/</t>
   </si>
@@ -265,13 +266,42 @@
   </si>
   <si>
     <t>内部创建gamemode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGameModeBase</t>
+  </si>
+  <si>
+    <t>AGameMode</t>
+  </si>
+  <si>
+    <t>class ENGINE_API AGameMode : public AGameModeBase</t>
+  </si>
+  <si>
+    <t>基类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？？？！！！何时会用了？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在WorldSetting里面设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般情况下都是创建的AGameModeBase，最基础的类，什么都没有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>里面已经有了状态机：匹配，开始，结束等</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -380,6 +410,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6819900</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1037775</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>437970</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1BDD7EC-4EF9-B878-DCED-FFAFCD15EBD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11782425" y="447675"/>
+          <a:ext cx="3600000" cy="1438095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -644,7 +723,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -680,11 +759,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A5:D58"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -893,11 +972,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:D26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -907,106 +986,146 @@
     <col min="3" max="3" width="91.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:4" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="3" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+    <row r="13" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B13" s="7" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C16" s="5" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C21" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C17" s="6" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C22" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C18" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C19" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C20" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
         <v>50</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C28" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C24" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
+    <row r="31" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B31" s="7" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1014,11 +1133,12 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A3:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1072,10 +1192,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>

--- a/doc/ue_gameplay.xlsx
+++ b/doc/ue_gameplay.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D26AFCF-37A3-442A-9DB1-B09E33C3777E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BC2840-9472-4183-93BF-1C042E4A5723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="76">
   <si>
     <t>https://docs.unrealengine.com/4.27/zh-CN/InteractiveExperiences/HowTo/CharacterMovement/</t>
   </si>
@@ -295,6 +295,10 @@
   </si>
   <si>
     <t>里面已经有了状态机：匹配，开始，结束等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该类可以被继承和设置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -975,7 +979,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -1193,14 +1197,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/doc/ue_gameplay.xlsx
+++ b/doc/ue_gameplay.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BC2840-9472-4183-93BF-1C042E4A5723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7716250-2CE9-44DD-8079-17F9F70C8C97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="gamestate" sheetId="3" r:id="rId3"/>
     <sheet name="playerstate" sheetId="4" r:id="rId4"/>
     <sheet name="AWorldSettings" sheetId="5" r:id="rId5"/>
+    <sheet name="整体游戏玩家构造流程" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="168">
   <si>
     <t>https://docs.unrealengine.com/4.27/zh-CN/InteractiveExperiences/HowTo/CharacterMovement/</t>
   </si>
@@ -299,6 +300,327 @@
   </si>
   <si>
     <t>该类可以被继承和设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAWN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是玩家自己的类对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">gameMode </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerController就是控制PAWN的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置绑定各种事件：鼠标按键移动跳跃等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置缺省的PAWN类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如登录选择角色不需要就用Pawn，而场景中则需要自己的对象蓝图</t>
+  </si>
+  <si>
+    <t>不同场景用法不一样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要讲：进入游戏后，对应玩家对象的创建流程，涉及创建和事件绑定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家的蓝图类可以再每个场景自己的GameMode构造里面设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选角的场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMyGameModeBase::AMyGameModeBase()</t>
+  </si>
+  <si>
+    <t>: Super()</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>对于客户端默认都是1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefaultPawnClass = APawn::StaticClass();</t>
+  </si>
+  <si>
+    <t>不需要玩家对象,也不需要响应输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引擎启动的是否，初始化GameInstance里面localplayers个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>引擎初始化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UGameEngine::Init(IEngineLoop* InEngineLoop)</t>
+  </si>
+  <si>
+    <t>创建和初始化客户端的视野范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏内场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUE5_Test002GameMode::AUE5_Test002GameMode()</t>
+  </si>
+  <si>
+    <t>// Initialize the viewport client.</t>
+  </si>
+  <si>
+    <t>需要用我们自己的蓝图类，一般会在蓝图里面设置好组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UGameViewportClient* ViewportClient = NULL;</t>
+  </si>
+  <si>
+    <t>if(GIsClient)</t>
+  </si>
+  <si>
+    <t>// set default pawn class to our Blueprinted character</t>
+  </si>
+  <si>
+    <t>static ConstructorHelpers::FClassFinder&lt;APawn&gt; PlayerPawnClassFinder(TEXT("/Game/FirstPerson/Blueprints/BP_FirstPersonCharacter"));</t>
+  </si>
+  <si>
+    <t>ViewportClient = NewObject&lt;UGameViewportClient&gt;(this, GameViewportClientClass);</t>
+  </si>
+  <si>
+    <t>DefaultPawnClass = PlayerPawnClassFinder.Class;</t>
+  </si>
+  <si>
+    <t>ViewportClient-&gt;Init(*GameInstance-&gt;GetWorldContext(), GameInstance);</t>
+  </si>
+  <si>
+    <t>GameViewport = ViewportClient;</t>
+  </si>
+  <si>
+    <t>GameInstance-&gt;GetWorldContext()-&gt;GameViewport = ViewportClient;</t>
+  </si>
+  <si>
+    <t>CreateGameViewport( ViewportClient );</t>
+  </si>
+  <si>
+    <t>创建Sview</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建localplayers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FString Error;</t>
+  </si>
+  <si>
+    <t>if(ViewportClient-&gt;SetupInitialLocalPlayer(Error) == NULL)</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogEngine, Fatal,TEXT("%s"),*Error);</t>
+  </si>
+  <si>
+    <t>ULocalPlayer* UGameInstance::CreateLocalPlayer(int32 ControllerId, FString&amp; OutError, bool bSpawnPlayerController)</t>
+  </si>
+  <si>
+    <t>根据GetEngine()-&gt;LocalPlayerClass，可以配置的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次加载场景的时候，都会根据gameinstance::localplayers个数，创建对应的player</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool UEngine::LoadMap( FWorldContext&amp; WorldContext, FURL URL, class UPendingNetGame* Pending, FString&amp; Error )</t>
+  </si>
+  <si>
+    <t>根据localplayers创建玩家对应的Pawn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (WorldContext.OwningGameInstance != NULL)</t>
+  </si>
+  <si>
+    <t>for(auto It = WorldContext.OwningGameInstance-&gt;GetLocalPlayerIterator(); It; ++It)</t>
+  </si>
+  <si>
+    <t>FString Error2;</t>
+  </si>
+  <si>
+    <t>if(!(*It)-&gt;SpawnPlayActor(URL.ToString(1),Error2,WorldContext.World()))</t>
+  </si>
+  <si>
+    <t>注意，这个是调用的LocalPlayer的接口，内部创建的PlayerController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UE_LOG(LogEngine, Fatal, TEXT("Couldn't spawn player: %s"), *Error2);</t>
+  </si>
+  <si>
+    <t>LocalPlayer的创建接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool ULocalPlayer::SpawnPlayActor(const FString&amp; URL,FString&amp; OutError, UWorld* InWorld)</t>
+  </si>
+  <si>
+    <t>其创建的是内部的PlayerController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerController = InWorld-&gt;SpawnPlayActor(this, ROLE_SimulatedProxy, PlayerURL, UniqueId, OutError, GEngine-&gt;GetGamePlayers(InWorld).Find(this));</t>
+  </si>
+  <si>
+    <t>创建PlayerControllr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APlayerController* UWorld::SpawnPlayActor(UPlayer* NewPlayer, ENetRole RemoteRole, const FURL&amp; InURL, const FUniqueNetIdRepl&amp; UniqueId, FString&amp; Error, uint8 InNetPlayerIndex)</t>
+  </si>
+  <si>
+    <t>先创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APlayerController* const NewPlayerController = GameMode-&gt;Login(NewPlayer, RemoteRole, *InURL.Portal, Options, UniqueId, Error);</t>
+  </si>
+  <si>
+    <t>将PlayerController和localplayer绑定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NewPlayerController-&gt;SetPlayer(NewPlayer);</t>
+  </si>
+  <si>
+    <t>调度GameMode的接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameMode-&gt;PostLogin(NewPlayerController);</t>
+  </si>
+  <si>
+    <t>返回NewPlayerController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameMode的PostLogin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void AGameModeBase::PostLogin(APlayerController* NewPlayer)</t>
+  </si>
+  <si>
+    <t>HandleStartingNewPlayer(NewPlayer);</t>
+  </si>
+  <si>
+    <t>调度到蓝图的实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void AGameModeBase::HandleStartingNewPlayer_Implementation(APlayerController* NewPlayer)</t>
+  </si>
+  <si>
+    <t>调度下面的接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RestartPlayer(NewPlayer);</t>
+  </si>
+  <si>
+    <t>创建玩家Pawn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void AGameModeBase::RestartPlayer(AController* NewPlayer)</t>
+  </si>
+  <si>
+    <t>先找到一个玩家进入点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AActor* StartSpot = FindPlayerStart(NewPlayer);</t>
+  </si>
+  <si>
+    <t>调用下面的e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RestartPlayerAtPlayerStart(NewPlayer, StartSpot);</t>
+  </si>
+  <si>
+    <t>void AGameModeBase::RestartPlayerAtPlayerStart(AController* NewPlayer, AActor* StartSpot)</t>
+  </si>
+  <si>
+    <t>创建和绑定，这个时候playercontroller和玩家的pawn就绑定在一起了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APawn* NewPawn = SpawnDefaultPawnFor(NewPlayer, StartSpot);</t>
+  </si>
+  <si>
+    <t>！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部会根据设置的PawnClass，然后创建他，也就会到我们的class类了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (IsValid(NewPawn))</t>
+  </si>
+  <si>
+    <t>NewPlayer-&gt;SetPawn(NewPawn);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">controller和pawn绑定 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在我们Pawn类的构造里面就可以设置很多东西，一般这个是蓝图类做的，有自己很多控件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如人物的Mesh，头顶面板，人物信息，武器，挂件，骑乘等等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接下来会调用输入事件绑定函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void AUE5_Test002Character::SetupPlayerInputComponent(class UInputComponent* PlayerInputComponent)</t>
+  </si>
+  <si>
+    <t>在这个里面需要绑定玩家鼠标键盘等回调</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -728,10 +1050,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:B11"/>
+  <dimension ref="B2:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -740,18 +1062,57 @@
     <col min="3" max="9" width="35.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:2" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B9" s="1" t="s">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D4" s="4"/>
+      <c r="E4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D6" s="4"/>
+      <c r="E6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D7" s="4"/>
+      <c r="E7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D8" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:2" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="1" t="s">
+    <row r="14" spans="2:5" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1199,7 +1560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1215,4 +1576,534 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFC5017E-4FC4-4C1B-A01C-329F06E1B74E}">
+  <dimension ref="A2:T97"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B3" s="4"/>
+      <c r="L3" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B4" s="4"/>
+      <c r="O4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="N5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B6" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="O6" t="s">
+        <v>91</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="N7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D11" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>100</v>
+      </c>
+      <c r="O12" t="s">
+        <v>88</v>
+      </c>
+      <c r="T12" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>102</v>
+      </c>
+      <c r="N13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>103</v>
+      </c>
+      <c r="O14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>89</v>
+      </c>
+      <c r="O15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>106</v>
+      </c>
+      <c r="O16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>109</v>
+      </c>
+      <c r="N18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>111</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D24" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A36" s="4">
+        <v>2</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E39" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E40" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E41" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F42" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F43" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="G44" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="G45" t="s">
+        <v>126</v>
+      </c>
+      <c r="P45" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="G46" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H47" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="G48" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F49" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E50" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C53" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D54" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D55" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B57">
+        <v>3</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C58" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D59" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D60" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D61" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D62" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D63" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D64" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D65" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B67">
+        <v>4</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C68" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D69" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B71">
+        <v>5</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C72" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D73" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D74" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B76">
+        <v>6</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C77" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D78" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D79" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D80" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="81" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D81" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="83" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B83">
+        <v>7</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="84" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C84" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="85" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D85" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="86" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D86" t="s">
+        <v>157</v>
+      </c>
+      <c r="L86" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="M86" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="87" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D87" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="88" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D88" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="89" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="E89" t="s">
+        <v>161</v>
+      </c>
+      <c r="L89" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="90" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D90" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="92" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B92">
+        <v>8</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="93" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D93" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="95" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C95" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="96" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D96" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="97" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D97" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>